--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/123/word_level_predictions_123.xlsx
@@ -4298,208 +4298,208 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>6</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>6</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>6</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>2</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>6</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13034,418 +13034,418 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" t="n">
         <v>19</v>
       </c>
-      <c r="B243" s="2" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" s="2" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D243" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" s="2" t="inlineStr">
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F243" s="2" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G243" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L243" s="2" t="inlineStr">
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K243" t="b">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" t="n">
         <v>19</v>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" s="2" t="inlineStr">
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F244" s="2" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G244" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L244" s="2" t="inlineStr">
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" t="n">
         <v>19</v>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D245" t="n">
         <v>2</v>
       </c>
-      <c r="E245" s="2" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" s="2" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L245" s="2" t="inlineStr">
+      <c r="G245" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K245" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>19</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" t="n">
         <v>3</v>
       </c>
-      <c r="E246" s="2" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F246" s="2" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>19</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" t="n">
         <v>4</v>
       </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>19</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>5</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>19</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>6</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F249" s="2" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>19</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>7</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="F331" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G331" s="2" t="b">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L331" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23989,11 +23989,11 @@
         </is>
       </c>
       <c r="I453" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J453" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K453" s="2" t="b">
@@ -24041,11 +24041,11 @@
         </is>
       </c>
       <c r="I454" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J454" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K454" s="2" t="b">
@@ -24093,11 +24093,11 @@
         </is>
       </c>
       <c r="I455" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J455" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K455" s="2" t="b">
@@ -24145,11 +24145,11 @@
         </is>
       </c>
       <c r="I456" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J456" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K456" s="2" t="b">
@@ -24185,7 +24185,7 @@
       </c>
       <c r="F457" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G457" s="2" t="b">
@@ -24197,11 +24197,11 @@
         </is>
       </c>
       <c r="I457" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K457" s="2" t="b">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="L457" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G458" s="2" t="b">
@@ -24249,11 +24249,11 @@
         </is>
       </c>
       <c r="I458" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K458" s="2" t="b">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="L458" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/123/word_level_predictions_123.xlsx
@@ -4298,208 +4298,208 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="D75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>9</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13034,418 +13034,418 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C243" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D243" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" t="inlineStr">
+      <c r="D243" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F243" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G243" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" t="b">
-        <v>1</v>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K243" t="b">
-        <v>1</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="G243" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D244" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" t="inlineStr">
+      <c r="D244" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F244" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K244" t="b">
-        <v>1</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="G244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C245" s="2" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E245" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F245" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K245" t="b">
-        <v>1</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="G245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E247" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="F247" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E249" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>landing</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>6</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>19</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E250" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="F331" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G331" s="2" t="b">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L331" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23989,11 +23989,11 @@
         </is>
       </c>
       <c r="I453" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J453" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K453" s="2" t="b">
@@ -24041,11 +24041,11 @@
         </is>
       </c>
       <c r="I454" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K454" s="2" t="b">
@@ -24093,11 +24093,11 @@
         </is>
       </c>
       <c r="I455" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K455" s="2" t="b">
@@ -24145,11 +24145,11 @@
         </is>
       </c>
       <c r="I456" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K456" s="2" t="b">
@@ -24185,7 +24185,7 @@
       </c>
       <c r="F457" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G457" s="2" t="b">
@@ -24197,11 +24197,11 @@
         </is>
       </c>
       <c r="I457" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K457" s="2" t="b">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="L457" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G458" s="2" t="b">
@@ -24249,11 +24249,11 @@
         </is>
       </c>
       <c r="I458" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K458" s="2" t="b">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="L458" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
